--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Zenker's diverticulum_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Zenker's diverticulum_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,12 +462,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Difficulty swallowing solids is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia, particularly for liquids, is a common symptom of Zenker's diverticulum due to the obstruction caused by the diverticulum.</t>
+          <t>Difficulty swallowing solids is a common symptom of Zenker's diverticulum due to the obstruction caused by the diverticulum.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,19 +477,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate laryngeal involvement or compression, which is often seen in Zenker's diverticulum; its absence suggests the condition is less likely.</t>
+          <t>Hoarseness is often associated with Zenker's diverticulum due to compression of the recurrent laryngeal nerve or irritation, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Difficulty swallowing liquids is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia for solids is also a hallmark of Zenker's diverticulum, indicating esophageal obstruction.</t>
+          <t>Difficulty swallowing liquids, along with solids, suggests a mechanical obstruction like Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,7 +499,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Coughing can occur due to aspiration or irritation from Zenker's diverticulum; its absence suggests a lower likelihood of the condition.</t>
+          <t>Cough is a common symptom in Zenker's diverticulum due to aspiration, so its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -510,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with Zenker's diverticulum often experience relief from pain after regurgitating trapped food, which is consistent with the condition.</t>
+          <t>Pain relieved with regurgitation is characteristic of Zenker's diverticulum as the diverticulum can trap food, causing discomfort that is relieved when the food is regurgitated.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -520,51 +521,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The globus sensation, a feeling of a lump in the throat, is often reported in Zenker's diverticulum; its absence argues against the diagnosis.</t>
+          <t>Globus sensation, a feeling of a lump in the throat, is often reported in Zenker's diverticulum, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Weight loss can occur in patients with Zenker's diverticulum due to difficulty swallowing and subsequent reduced food intake.</t>
+          <t>Non-progressive dysphagia with difficulty swallowing liquids is consistent with Zenker's diverticulum, where the obstruction does not necessarily worsen over time.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nausea and/or vomiting is absent.</t>
+          <t>Neck masses or fullness reported is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nausea and vomiting can be associated with esophageal obstruction; their absence makes Zenker's diverticulum less likely.</t>
+          <t>A neck mass or fullness can be a sign of a large Zenker's diverticulum, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food is present.</t>
+          <t>Weight loss reported is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chest pain related to eating can indicate esophageal issues, including Zenker's diverticulum, where food may get stuck.</t>
+          <t>Weight loss can occur in Zenker's diverticulum due to difficulty swallowing and reduced food intake.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Early satiety is present.</t>
+          <t>Halitosis reported is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While early satiety can occur in various conditions, it is not a classic symptom of Zenker's diverticulum and may suggest other gastrointestinal issues.</t>
+          <t>Halitosis, or bad breath, is common in Zenker's diverticulum due to food retention, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zenker's diverticulum is more common in females than males, which supports the diagnosis.</t>
+          <t>Zenker's diverticulum is more common in middle-aged and older adults.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>absence of prior treatment with radiation to the neck, arm, or jaw</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation treatment is a known risk factor for the development of Zenker's diverticulum, and its absence suggests a lower likelihood of the condition.</t>
+          <t>Radiation treatment in these areas can lead to structural changes that predispose to Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zenker's diverticulum typically occurs in older adults, and being middle-aged increases the likelihood of this diagnosis.</t>
+          <t>While Zenker's diverticulum is more common in males, the presence of being female does not strongly argue against it.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>absence of alcohol use disorder</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hypertension is often associated with vascular issues that can contribute to esophageal problems; its absence may indicate a lower risk for Zenker's diverticulum.</t>
+          <t>Alcohol use disorder can be associated with esophageal motility disorders, which may contribute to Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>takes amlodipine is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker that can lead to esophageal motility issues, which may contribute to the development of Zenker's diverticulum.</t>
+          <t>Amlodipine use is not directly related to Zenker's diverticulum but may indicate management of conditions that could be associated with swallowing difficulties.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>absence of nicotine dependence</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for many gastrointestinal disorders, including esophageal conditions; its absence may suggest a lower likelihood of Zenker's diverticulum.</t>
+          <t>Nicotine dependence can be associated with esophageal disorders, which may contribute to Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>absence of obesity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While alcohol use disorder is a risk factor for various esophageal conditions, its absence does not directly negate the possibility of Zenker's diverticulum.</t>
+          <t>Obesity is not a direct risk factor for Zenker's diverticulum, so its absence does not strongly argue against the condition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies</t>
+          <t>absence of diagnosed hypertension</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Environmental allergies can contribute to esophageal symptoms; their absence may indicate a lower likelihood of Zenker's diverticulum.</t>
+          <t>Hypertension is not directly related to Zenker's diverticulum, but its absence suggests a lower risk profile for vascular-related esophageal changes.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>absence of recent medication changes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to alcohol use, nicotine dependence is a risk factor for esophageal issues, and its absence does not rule out Zenker's diverticulum.</t>
+          <t>Stable medication use suggests no recent changes that could affect swallowing, indirectly supporting a chronic condition like Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of asthma</t>
+          <t>absence of type 2 diabetes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Asthma can be associated with esophageal motility disorders; its absence may suggest a lower likelihood of Zenker's diverticulum.</t>
+          <t>Diabetes can be associated with neuropathy affecting esophageal motility, which may contribute to Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
@@ -763,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prior tobacco use</t>
+          <t>Prior tobacco use is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tobacco use has been associated with an increased risk of esophageal conditions, including Zenker's diverticulum.</t>
+          <t>Prior tobacco use is a known risk factor for developing Zenker's diverticulum due to its association with esophageal motility disorders.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of rheumatoid arthritis in the family suggests a lower likelihood of connective tissue disorders that could contribute to esophageal issues.</t>
+          <t>The absence of current tobacco use reduces the risk of esophageal motility disorders, which are associated with Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recent social stress</t>
+          <t>Recent social stress is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Social stress can contribute to swallowing difficulties and may be associated with the development of Zenker's diverticulum.</t>
+          <t>Social stress can exacerbate symptoms related to esophageal motility, potentially contributing to the development of Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is a risk factor for many esophageal conditions; its absence may indicate a lower risk for Zenker's diverticulum.</t>
+          <t>The absence of recent travel reduces the likelihood of exposure to environmental factors that could exacerbate esophageal conditions.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father</t>
+          <t>Family history of myocardial infarction in father is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, a family history of cardiovascular issues may suggest a genetic predisposition to conditions affecting the esophagus.</t>
+          <t>While not directly related, cardiovascular issues can sometimes correlate with esophageal conditions due to shared risk factors like smoking.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent travel may suggest a lower risk of infections or conditions that could lead to esophageal diverticula.</t>
+          <t>While not directly related, the absence of autoimmune conditions in the family history may reduce the likelihood of associated esophageal motility issues.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of cancer in the family may suggest a lower risk for malignancies that could mimic or complicate Zenker's diverticulum.</t>
+          <t>The absence of a family history of cancer may indirectly support Zenker's diverticulum, as it reduces the likelihood of other esophageal pathologies that could mimic its symptoms.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of recent medical procedures reduces the likelihood of complications that could mimic or cause symptoms similar to Zenker's diverticulum.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of iatrogenic causes of esophageal symptoms.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alcohol use is absent</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of alcohol use may indicate a lower risk for esophageal conditions, indirectly supporting the diagnosis of Zenker's diverticulum by ruling out other causes.</t>
+          <t>While alcohol use is not directly linked to Zenker's diverticulum, its absence may reduce the likelihood of other esophageal conditions, indirectly supporting this diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of gestational complications may indicate a lower risk for conditions that could affect esophageal function.</t>
+          <t>The absence of gestational complications suggests a lower likelihood of systemic conditions that could affect esophageal function.</t>
         </is>
       </c>
     </row>
@@ -919,105 +920,256 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss can occur due to difficulty swallowing and subsequent malnutrition, which is common in patients with Zenker's diverticulum.</t>
+          <t>Weight loss can occur due to difficulty swallowing and malnutrition associated with Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>Halitosis observed is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is not typically associated with Zenker's diverticulum, and its absence does not support the diagnosis.</t>
+          <t>Halitosis is a common symptom of Zenker's diverticulum due to food retention in the diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Halitosis observed is absent.</t>
+          <t>Telangiectasias on exam is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>While halitosis is typically present in Zenker's diverticulum due to food stagnation, its absence may suggest a lower likelihood of the condition.</t>
+          <t>While not directly related to Zenker's diverticulum, telangiectasias can be associated with connective tissue disorders that may predispose to esophageal issues.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Cough observed is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Telangiectasias are not a common finding in Zenker's diverticulum and may suggest an alternative diagnosis.</t>
+          <t>Cough can occur due to aspiration or irritation from the diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coughing can occur due to aspiration from Zenker's diverticulum; its absence may indicate a lower likelihood of the condition.</t>
+          <t>No other findings strongly support Zenker's diverticulum based on the provided context.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Hoarse voice observed is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of epigastric pain may indicate that there is no esophageal obstruction or diverticular pain, which is often present in Zenker's diverticulum.</t>
+          <t>Hoarseness can occur if the diverticulum affects the recurrent laryngeal nerve or due to chronic irritation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A hoarse voice can be a symptom of Zenker's diverticulum due to pressure on the recurrent laryngeal nerve; its absence may suggest a lower likelihood of the condition.</t>
+          <t>No other findings strongly support Zenker's diverticulum based on the provided context.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hand thickening observed is absent.</t>
+          <t>Neck masses or fullness observed is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of hand thickening suggests that there are no systemic conditions that could be contributing to esophageal symptoms, which may include Zenker's diverticulum.</t>
+          <t>A neck mass or fullness can be a sign of a large Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Neck masses or fullness observed is absent.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The presence of a neck mass or fullness can indicate Zenker's diverticulum; its absence supports a lower likelihood of the diagnosis.</t>
+          <t>No other findings strongly support Zenker's diverticulum based on the provided context.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>Epigastric pain on palpation is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of joint swelling may indicate that there are no underlying rheumatological conditions that could mimic or contribute to esophageal symptoms, reducing the likelihood of Zenker's diverticulum.</t>
+          <t>While not specific, epigastric pain can be associated with esophageal disorders.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Zenker's diverticulum</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Zenker's diverticulum</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Zenker's diverticulum</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Zenker's diverticulum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aspiration is a common finding in Zenker's diverticulum due to the outpouching causing food and liquid to enter the airway. However, the absence of aspiration does not strongly support Zenker's diverticulum.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aspiration is a common finding in Zenker's diverticulum, so its absence is a strong indicator against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to Zenker's diverticulum, but its presence does not rule out the condition.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A widened mediastinum is not typically associated with Zenker's diverticulum, so its absence does not strongly argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA is not directly related to Zenker's diverticulum, but it does not rule out the condition.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of interstitial lung disease is not directly related to Zenker's diverticulum, so it does not strongly argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of interstitial lung disease is not directly related to Zenker's diverticulum, but it does not rule out the condition.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA is not directly related to Zenker's diverticulum, so it does not strongly argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum is not directly related to Zenker's diverticulum, but it does not rule out the condition.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to Zenker's diverticulum, so its presence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
